--- a/teaching/traditional_assets/database/data/jordan/jordan_construction_supplies.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_construction_supplies.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0388</v>
+        <v>-0.09910000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.303</v>
+        <v>-0.193</v>
       </c>
       <c r="G2">
-        <v>0.06621264321769088</v>
+        <v>0.1094213197969543</v>
       </c>
       <c r="H2">
-        <v>0.06621264321769088</v>
+        <v>0.1094213197969543</v>
       </c>
       <c r="I2">
-        <v>0.004558929572950882</v>
+        <v>0.07274111675126904</v>
       </c>
       <c r="J2">
-        <v>0.004492792989005256</v>
+        <v>0.06900234431053866</v>
       </c>
       <c r="K2">
-        <v>-1.695</v>
+        <v>-0.3330000000000005</v>
       </c>
       <c r="L2">
-        <v>-0.01358064257671661</v>
+        <v>-0.003380710659898483</v>
       </c>
       <c r="M2">
-        <v>0.31332</v>
+        <v>4.24</v>
       </c>
       <c r="N2">
-        <v>0.001348250785317785</v>
+        <v>0.01778150555672049</v>
       </c>
       <c r="O2">
-        <v>-0.1848495575221239</v>
+        <v>-12.73273273273271</v>
       </c>
       <c r="P2">
-        <v>0.31332</v>
+        <v>4.24</v>
       </c>
       <c r="Q2">
-        <v>0.001348250785317785</v>
+        <v>0.01778150555672049</v>
       </c>
       <c r="R2">
-        <v>-0.1848495575221239</v>
+        <v>-12.73273273273271</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.007</v>
+        <v>6.124</v>
       </c>
       <c r="V2">
-        <v>0.008636344076767503</v>
+        <v>0.02568253302579157</v>
       </c>
       <c r="W2">
-        <v>-0.0499893135407154</v>
+        <v>-0.04472222222222222</v>
       </c>
       <c r="X2">
-        <v>0.1848180259797821</v>
+        <v>0.1607708031110086</v>
       </c>
       <c r="Y2">
-        <v>-0.2348073395204975</v>
+        <v>-0.2054930253332308</v>
       </c>
       <c r="Z2">
-        <v>0.6962240680102864</v>
+        <v>0.483513894274901</v>
       </c>
       <c r="AA2">
-        <v>-0.01754965159499207</v>
+        <v>-0.01357427384473356</v>
       </c>
       <c r="AB2">
-        <v>0.1203981269814553</v>
+        <v>0.1097041744261675</v>
       </c>
       <c r="AC2">
-        <v>-0.1383380653729047</v>
+        <v>-0.1248506408849271</v>
       </c>
       <c r="AD2">
-        <v>68.23</v>
+        <v>38.39</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>68.23</v>
+        <v>38.39</v>
       </c>
       <c r="AG2">
-        <v>66.223</v>
+        <v>32.266</v>
       </c>
       <c r="AH2">
-        <v>0.2269642738340762</v>
+        <v>0.1386721572027164</v>
       </c>
       <c r="AI2">
-        <v>0.3025318139493637</v>
+        <v>0.2103676913803496</v>
       </c>
       <c r="AJ2">
-        <v>0.2217686436960213</v>
+        <v>0.1191876357511193</v>
       </c>
       <c r="AK2">
-        <v>0.2962692877243057</v>
+        <v>0.1829490944966717</v>
       </c>
       <c r="AL2">
-        <v>2.32</v>
+        <v>1.738</v>
       </c>
       <c r="AM2">
-        <v>2.263</v>
+        <v>1.738</v>
       </c>
       <c r="AN2">
-        <v>7.943881709162883</v>
+        <v>3.199699949991666</v>
       </c>
       <c r="AO2">
-        <v>0.245258620689655</v>
+        <v>4.122554660529345</v>
       </c>
       <c r="AP2">
-        <v>7.710210734660612</v>
+        <v>2.689281546924487</v>
       </c>
       <c r="AQ2">
-        <v>0.2514361467079097</v>
+        <v>4.122554660529345</v>
       </c>
     </row>
     <row r="3">
@@ -725,100 +725,103 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0731</v>
+        <v>-0.09910000000000001</v>
       </c>
       <c r="E3">
-        <v>-0.303</v>
+        <v>-0.193</v>
       </c>
       <c r="G3">
-        <v>0.03395931142410016</v>
+        <v>0.1791808873720137</v>
       </c>
       <c r="H3">
-        <v>0.03395931142410016</v>
+        <v>0.1791808873720137</v>
       </c>
       <c r="I3">
-        <v>0.04710485133020344</v>
+        <v>0.1459044368600683</v>
       </c>
       <c r="J3">
-        <v>0.04437144305583107</v>
+        <v>0.1234067005641847</v>
       </c>
       <c r="K3">
-        <v>3.34</v>
+        <v>7.47</v>
       </c>
       <c r="L3">
-        <v>0.05226917057902973</v>
+        <v>0.1274744027303754</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>4.24</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.01897940913160251</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.56760374832664</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>4.24</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01897940913160251</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.56760374832664</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>1.87</v>
+        <v>5.93</v>
       </c>
       <c r="V3">
-        <v>0.008762886597938144</v>
+        <v>0.02654431512981199</v>
       </c>
       <c r="W3">
-        <v>0.0371523915461624</v>
+        <v>0.07773152965660771</v>
       </c>
       <c r="X3">
-        <v>0.1260934972825404</v>
+        <v>0.1020619744725327</v>
       </c>
       <c r="Y3">
-        <v>-0.08894110573637798</v>
+        <v>-0.02433044481592504</v>
       </c>
       <c r="Z3">
-        <v>0.7245719469327587</v>
+        <v>0.4409662126570849</v>
       </c>
       <c r="AA3">
-        <v>0.03215030288317956</v>
+        <v>0.05441818536429548</v>
       </c>
       <c r="AB3">
-        <v>0.1146743027454004</v>
+        <v>0.09726483867079488</v>
       </c>
       <c r="AC3">
-        <v>-0.08252399986222086</v>
+        <v>-0.04284665330649941</v>
       </c>
       <c r="AD3">
-        <v>42.6</v>
+        <v>21.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>42.6</v>
+        <v>21.4</v>
       </c>
       <c r="AG3">
-        <v>40.73</v>
+        <v>15.47</v>
       </c>
       <c r="AH3">
-        <v>0.16640625</v>
+        <v>0.08741830065359477</v>
       </c>
       <c r="AI3">
-        <v>0.3132352941176471</v>
+        <v>0.1772990886495443</v>
       </c>
       <c r="AJ3">
-        <v>0.1602723015779326</v>
+        <v>0.06476326035081843</v>
       </c>
       <c r="AK3">
-        <v>0.3036606277491986</v>
+        <v>0.1347913217739827</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.301775147928995</v>
+        <v>1.945454545454545</v>
       </c>
       <c r="AP3">
-        <v>6.025147928994084</v>
+        <v>1.406363636363636</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Quds Readymix PLC (ASE:AQRM)</t>
+          <t>Ready Mix Concrete and Construction Supplies (ASE:RMCC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,118 +853,115 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0373</v>
+        <v>-0.109</v>
       </c>
       <c r="G4">
-        <v>0.1312101910828025</v>
+        <v>-0.004396284829721362</v>
       </c>
       <c r="H4">
-        <v>0.1312101910828025</v>
+        <v>-0.004396284829721362</v>
       </c>
       <c r="I4">
-        <v>-0.02</v>
+        <v>-0.02458204334365325</v>
       </c>
       <c r="J4">
-        <v>-0.02</v>
+        <v>-0.02458204334365325</v>
       </c>
       <c r="K4">
-        <v>-0.22</v>
+        <v>-7.32</v>
       </c>
       <c r="L4">
-        <v>-0.02802547770700637</v>
+        <v>-0.226625386996904</v>
       </c>
       <c r="M4">
-        <v>0.31332</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.102727868852459</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-1.424181818181818</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.31332</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.102727868852459</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>-1.424181818181818</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>0.007</v>
+        <v>0.188</v>
       </c>
       <c r="V4">
-        <v>0.002295081967213115</v>
+        <v>0.01566666666666667</v>
       </c>
       <c r="W4">
-        <v>-0.0205607476635514</v>
+        <v>-0.1747016706443914</v>
       </c>
       <c r="X4">
-        <v>0.1515066008544781</v>
+        <v>0.176448963447937</v>
       </c>
       <c r="Y4">
-        <v>-0.1720673485180295</v>
+        <v>-0.3511506340923284</v>
       </c>
       <c r="Z4">
-        <v>0.7065706570657065</v>
+        <v>0.5522028276887833</v>
       </c>
       <c r="AA4">
-        <v>-0.01413141314131413</v>
+        <v>-0.01357427384473356</v>
       </c>
       <c r="AB4">
-        <v>0.1166728601235582</v>
+        <v>0.1112763670401936</v>
       </c>
       <c r="AC4">
-        <v>-0.1308042732648724</v>
+        <v>-0.1248506408849271</v>
       </c>
       <c r="AD4">
-        <v>1.66</v>
+        <v>14.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.66</v>
+        <v>14.1</v>
       </c>
       <c r="AG4">
-        <v>1.653</v>
+        <v>13.912</v>
       </c>
       <c r="AH4">
-        <v>0.3524416135881104</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="AI4">
-        <v>0.1399662731871838</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="AJ4">
-        <v>0.351477780140336</v>
+        <v>0.5368941031182464</v>
       </c>
       <c r="AK4">
-        <v>0.1394583649708935</v>
+        <v>0.2873667685697761</v>
       </c>
       <c r="AL4">
-        <v>0.171</v>
+        <v>1.5</v>
       </c>
       <c r="AM4">
-        <v>0.12</v>
+        <v>1.5</v>
       </c>
       <c r="AN4">
-        <v>5.992779783393501</v>
+        <v>12.26086956521739</v>
       </c>
       <c r="AO4">
-        <v>-0.9181286549707601</v>
+        <v>-0.5293333333333333</v>
       </c>
       <c r="AP4">
-        <v>5.967509025270758</v>
+        <v>12.09739130434783</v>
       </c>
       <c r="AQ4">
-        <v>-1.308333333333333</v>
+        <v>-0.5293333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +972,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ready Mix Concrete and Construction Supplies (ASE:RMCC)</t>
+          <t>Al Quds Readymix PLC (ASE:AQRM)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0403</v>
+        <v>-0.0321</v>
       </c>
       <c r="G5">
-        <v>0.1046189376443418</v>
+        <v>0.05526315789473684</v>
       </c>
       <c r="H5">
-        <v>0.1046189376443418</v>
+        <v>0.05526315789473684</v>
       </c>
       <c r="I5">
-        <v>-0.03163972286374134</v>
+        <v>-0.07776315789473684</v>
       </c>
       <c r="J5">
-        <v>-0.03163972286374134</v>
+        <v>-0.07776315789473684</v>
       </c>
       <c r="K5">
-        <v>-3.82</v>
+        <v>-0.483</v>
       </c>
       <c r="L5">
-        <v>-0.08822170900692841</v>
+        <v>-0.06355263157894737</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1023,201 +1023,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.103</v>
+        <v>0.006</v>
       </c>
       <c r="V5">
-        <v>0.007686567164179104</v>
+        <v>0.001967213114754098</v>
       </c>
       <c r="W5">
-        <v>-0.07941787941787941</v>
+        <v>-0.04472222222222222</v>
       </c>
       <c r="X5">
-        <v>0.2181294511050861</v>
+        <v>0.1607708031110086</v>
       </c>
       <c r="Y5">
-        <v>-0.2975473305229655</v>
+        <v>-0.2054930253332308</v>
       </c>
       <c r="Z5">
-        <v>0.6627077657718327</v>
+        <v>0.6161829090319442</v>
       </c>
       <c r="AA5">
-        <v>-0.02096789004867</v>
+        <v>-0.04791632884708934</v>
       </c>
       <c r="AB5">
-        <v>0.124903967432267</v>
+        <v>0.1097041744261675</v>
       </c>
       <c r="AC5">
-        <v>-0.145871857480937</v>
+        <v>-0.1576205032732568</v>
       </c>
       <c r="AD5">
-        <v>19.4</v>
+        <v>2.89</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>19.4</v>
+        <v>2.89</v>
       </c>
       <c r="AG5">
-        <v>19.297</v>
+        <v>2.884</v>
       </c>
       <c r="AH5">
-        <v>0.5914634146341463</v>
+        <v>0.4865319865319866</v>
       </c>
       <c r="AI5">
-        <v>0.3129032258064516</v>
+        <v>0.2191053828658074</v>
       </c>
       <c r="AJ5">
-        <v>0.5901764687891855</v>
+        <v>0.4860128075497135</v>
       </c>
       <c r="AK5">
-        <v>0.3117598591207974</v>
+        <v>0.21875</v>
       </c>
       <c r="AL5">
-        <v>2.09</v>
+        <v>0.238</v>
       </c>
       <c r="AM5">
-        <v>2.09</v>
+        <v>0.238</v>
       </c>
       <c r="AN5">
-        <v>16.03305785123967</v>
+        <v>-19.01315789473684</v>
       </c>
       <c r="AO5">
-        <v>-0.6555023923444977</v>
+        <v>-2.483193277310924</v>
       </c>
       <c r="AP5">
-        <v>15.94793388429752</v>
+        <v>-18.97368421052632</v>
       </c>
       <c r="AQ5">
-        <v>-0.6555023923444977</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ASSAS FOR CONCRETE PRODUCTS Ltd. (ASE:ASAS)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Construction Supplies</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>-0.00659</v>
-      </c>
-      <c r="G6">
-        <v>0.05471311475409837</v>
-      </c>
-      <c r="H6">
-        <v>0.05471311475409837</v>
-      </c>
-      <c r="I6">
-        <v>-0.09364754098360656</v>
-      </c>
-      <c r="J6">
-        <v>-0.09364754098360656</v>
-      </c>
-      <c r="K6">
-        <v>-0.995</v>
-      </c>
-      <c r="L6">
-        <v>-0.1019467213114754</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.027</v>
-      </c>
-      <c r="V6">
-        <v>0.01062992125984252</v>
-      </c>
-      <c r="W6">
-        <v>-0.08024193548387097</v>
-      </c>
-      <c r="X6">
-        <v>0.2440450269986076</v>
-      </c>
-      <c r="Y6">
-        <v>-0.3242869624824786</v>
-      </c>
-      <c r="Z6">
-        <v>0.6671679540638457</v>
-      </c>
-      <c r="AA6">
-        <v>-0.06247863832114293</v>
-      </c>
-      <c r="AB6">
-        <v>0.1241233938393523</v>
-      </c>
-      <c r="AC6">
-        <v>-0.1866020321604953</v>
-      </c>
-      <c r="AD6">
-        <v>4.57</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>4.57</v>
-      </c>
-      <c r="AG6">
-        <v>4.543</v>
-      </c>
-      <c r="AH6">
-        <v>0.6427566807313643</v>
-      </c>
-      <c r="AI6">
-        <v>0.2916400765794512</v>
-      </c>
-      <c r="AJ6">
-        <v>0.6413948891712551</v>
-      </c>
-      <c r="AK6">
-        <v>0.2904174391101451</v>
-      </c>
-      <c r="AL6">
-        <v>0.059</v>
-      </c>
-      <c r="AM6">
-        <v>0.053</v>
-      </c>
-      <c r="AN6">
-        <v>13.3625730994152</v>
-      </c>
-      <c r="AO6">
-        <v>-15.49152542372881</v>
-      </c>
-      <c r="AP6">
-        <v>13.28362573099415</v>
-      </c>
-      <c r="AQ6">
-        <v>-17.24528301886793</v>
+        <v>-2.483193277310924</v>
       </c>
     </row>
   </sheetData>
